--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268866.7472829827</v>
+        <v>268184.8866455276</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4968231.017992429</v>
+        <v>5099699.904991426</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22289395.19939268</v>
+        <v>22412720.69115157</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4041234.827657041</v>
+        <v>3983215.481358743</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.8754206761762339</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1288293499183769</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.8754206761762336</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="C20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.8754206761762336</v>
       </c>
       <c r="E20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.8754206761762336</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="C22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.8754206761762336</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="D23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>9.977552361264271</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>39.58387696184059</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="30">
@@ -2874,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>34.86547882798917</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="31">
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2974,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F32" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3226,22 +3228,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.1792675346265591</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,25 +3271,25 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,10 +3313,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3402,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.58387696184059</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X37" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>12.35200489467393</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3597,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.485885003952875</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>39.58387696184059</v>
+        <v>23.42587357311021</v>
       </c>
       <c r="V42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="X42" t="n">
-        <v>34.86547882798917</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>22.50809475375158</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>23.42587357311021</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4062,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>23.42587357311021</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>23.42587357311021</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.023709464647503</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.007663221930055</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2.087375423060791</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.8336440675156171</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.047418929295006</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.047418929295006</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.845440080011949</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.841508075846505</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.837576071681061</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.047418929295006</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.031372686577558</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.9637747239988261</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.3355078473624</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="C20" t="n">
-        <v>118.3517937444931</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="D20" t="n">
-        <v>118.3517937444931</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="E20" t="n">
-        <v>78.36807964162378</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="F20" t="n">
-        <v>78.36807964162378</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="G20" t="n">
-        <v>78.36807964162378</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="H20" t="n">
-        <v>43.15042425981653</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K20" t="n">
-        <v>40.77139327069581</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="L20" t="n">
-        <v>79.95943146291799</v>
+        <v>2.047418929295006</v>
       </c>
       <c r="M20" t="n">
-        <v>119.1474696551402</v>
+        <v>3.031372686577558</v>
       </c>
       <c r="N20" t="n">
-        <v>158.3355078473624</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="O20" t="n">
-        <v>158.3355078473624</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="P20" t="n">
-        <v>158.3355078473624</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q20" t="n">
-        <v>158.3355078473624</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="R20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="S20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="T20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="U20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="W20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="X20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.971638732329714</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.38436553875449</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="C21" t="n">
-        <v>38.38436553875449</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="D21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="E21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="F21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="G21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="H21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="I21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K21" t="n">
-        <v>40.77139327069581</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="L21" t="n">
-        <v>40.77139327069581</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="M21" t="n">
-        <v>40.77139327069581</v>
+        <v>2.007663221930055</v>
       </c>
       <c r="N21" t="n">
-        <v>40.77139327069581</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="O21" t="n">
-        <v>79.95943146291799</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="P21" t="n">
-        <v>119.1474696551402</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.3355078473624</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3517937444931</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="S21" t="n">
-        <v>78.36807964162378</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="T21" t="n">
-        <v>78.36807964162378</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="U21" t="n">
-        <v>78.36807964162378</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="V21" t="n">
-        <v>78.36807964162378</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="W21" t="n">
-        <v>78.36807964162378</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="X21" t="n">
-        <v>78.36807964162378</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="Y21" t="n">
-        <v>78.36807964162378</v>
+        <v>0.9637747239988261</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.21247408113457</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="C22" t="n">
-        <v>53.22875997826529</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="D22" t="n">
-        <v>13.245045875396</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="E22" t="n">
-        <v>13.245045875396</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="F22" t="n">
-        <v>13.245045875396</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="G22" t="n">
-        <v>13.245045875396</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="H22" t="n">
-        <v>13.245045875396</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I22" t="n">
-        <v>13.245045875396</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="L22" t="n">
-        <v>30.48083516466022</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="M22" t="n">
-        <v>69.6688733568824</v>
+        <v>2.047418929295006</v>
       </c>
       <c r="N22" t="n">
-        <v>108.8569115491046</v>
+        <v>3.031372686577558</v>
       </c>
       <c r="O22" t="n">
-        <v>133.1961881840039</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="P22" t="n">
-        <v>133.1961881840039</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.1961881840039</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="R22" t="n">
-        <v>133.1961881840039</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="S22" t="n">
-        <v>133.1961881840039</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="T22" t="n">
-        <v>133.1961881840039</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="U22" t="n">
-        <v>133.1961881840039</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="V22" t="n">
-        <v>133.1961881840039</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="W22" t="n">
-        <v>133.1961881840039</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="X22" t="n">
-        <v>133.1961881840039</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.21247408113457</v>
+        <v>2.971638732329714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.36807964162378</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C23" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L23" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M23" t="n">
-        <v>120.7308247336138</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N23" t="n">
-        <v>158.3355078473624</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O23" t="n">
-        <v>158.3355078473624</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R23" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S23" t="n">
-        <v>118.3517937444931</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T23" t="n">
-        <v>78.36807964162378</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U23" t="n">
-        <v>78.36807964162378</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V23" t="n">
-        <v>78.36807964162378</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W23" t="n">
-        <v>78.36807964162378</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X23" t="n">
-        <v>78.36807964162378</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y23" t="n">
-        <v>78.36807964162378</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C24" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M24" t="n">
-        <v>40.77139327069581</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N24" t="n">
-        <v>79.95943146291799</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O24" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P24" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T24" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U24" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V24" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W24" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X24" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y24" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.38436553875449</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="C25" t="n">
-        <v>28.30602982030574</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="D25" t="n">
-        <v>28.30602982030574</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="E25" t="n">
-        <v>28.30602982030574</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="F25" t="n">
-        <v>28.30602982030574</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="G25" t="n">
-        <v>28.30602982030574</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="H25" t="n">
-        <v>28.30602982030574</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="I25" t="n">
-        <v>28.30602982030574</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="J25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>158.3355078473624</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q25" t="n">
-        <v>158.3355078473624</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="R25" t="n">
-        <v>158.3355078473624</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="S25" t="n">
-        <v>158.3355078473624</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="T25" t="n">
-        <v>158.3355078473624</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="U25" t="n">
-        <v>158.3355078473624</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="V25" t="n">
-        <v>158.3355078473624</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="W25" t="n">
-        <v>158.3355078473624</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="X25" t="n">
-        <v>118.3517937444931</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="Y25" t="n">
-        <v>78.36807964162378</v>
+        <v>22.13378649092923</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.166710156947247</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C26" t="n">
-        <v>3.166710156947247</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D26" t="n">
-        <v>3.166710156947247</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L26" t="n">
-        <v>40.77139327069581</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M26" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N26" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O26" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R26" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S26" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T26" t="n">
-        <v>158.3355078473624</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U26" t="n">
-        <v>158.3355078473624</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V26" t="n">
-        <v>118.3517937444931</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="W26" t="n">
-        <v>78.36807964162378</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="X26" t="n">
-        <v>38.38436553875449</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.166710156947247</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C27" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>42.35474834916943</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L27" t="n">
-        <v>81.54278654139161</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M27" t="n">
-        <v>120.7308247336138</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N27" t="n">
-        <v>158.3355078473624</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O27" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S27" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T27" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U27" t="n">
-        <v>83.13413836268582</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V27" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W27" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X27" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C28" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D28" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E28" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H28" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W28" t="n">
-        <v>93.21247408113457</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X28" t="n">
-        <v>93.21247408113457</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.21247408113457</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C29" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D29" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>81.54278654139161</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M29" t="n">
-        <v>119.1474696551402</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N29" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O29" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>123.1178524655551</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S29" t="n">
-        <v>123.1178524655551</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T29" t="n">
-        <v>83.13413836268582</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U29" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V29" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W29" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X29" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y29" t="n">
-        <v>83.13413836268582</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.13413836268582</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="C30" t="n">
-        <v>83.13413836268582</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="D30" t="n">
-        <v>43.15042425981653</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="E30" t="n">
-        <v>3.166710156947247</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="F30" t="n">
-        <v>3.166710156947247</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="G30" t="n">
-        <v>3.166710156947247</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="H30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L30" t="n">
-        <v>3.166710156947247</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M30" t="n">
-        <v>42.35474834916943</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N30" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O30" t="n">
-        <v>120.7308247336138</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>83.13413836268582</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="U30" t="n">
-        <v>83.13413836268582</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="V30" t="n">
-        <v>83.13413836268582</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="W30" t="n">
-        <v>83.13413836268582</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="X30" t="n">
-        <v>83.13413836268582</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.13413836268582</v>
+        <v>30.83004705776872</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.22875997826529</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C31" t="n">
-        <v>53.22875997826529</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D31" t="n">
-        <v>13.245045875396</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E31" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F31" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W31" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X31" t="n">
-        <v>53.22875997826529</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.22875997826529</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>148.2438924791353</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C32" t="n">
-        <v>148.2438924791353</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D32" t="n">
-        <v>148.2438924791353</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E32" t="n">
-        <v>148.2438924791353</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F32" t="n">
-        <v>123.1178524655551</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G32" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H32" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>3.166710156947247</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L32" t="n">
-        <v>42.35474834916943</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M32" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N32" t="n">
-        <v>120.7308247336138</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>148.2438924791353</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R32" t="n">
-        <v>148.2438924791353</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S32" t="n">
-        <v>148.2438924791353</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T32" t="n">
-        <v>148.2438924791353</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U32" t="n">
-        <v>148.2438924791353</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V32" t="n">
-        <v>148.2438924791353</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W32" t="n">
-        <v>148.2438924791353</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X32" t="n">
-        <v>148.2438924791353</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y32" t="n">
-        <v>148.2438924791353</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L33" t="n">
-        <v>40.77139327069581</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M33" t="n">
-        <v>79.95943146291799</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N33" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S33" t="n">
-        <v>158.3355078473624</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T33" t="n">
-        <v>158.3355078473624</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V33" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W33" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X33" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y33" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.15042425981653</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="C34" t="n">
-        <v>43.15042425981653</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="D34" t="n">
-        <v>3.166710156947247</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="E34" t="n">
-        <v>3.166710156947247</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="F34" t="n">
-        <v>3.166710156947247</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="G34" t="n">
-        <v>3.166710156947247</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="H34" t="n">
-        <v>3.166710156947247</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="I34" t="n">
-        <v>3.166710156947247</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J34" t="n">
-        <v>3.166710156947247</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K34" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>133.1961881840039</v>
+        <v>108.3077753610589</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.21247408113457</v>
+        <v>108.3077753610589</v>
       </c>
       <c r="R34" t="n">
-        <v>53.22875997826529</v>
+        <v>108.3077753610589</v>
       </c>
       <c r="S34" t="n">
-        <v>43.15042425981653</v>
+        <v>108.3077753610589</v>
       </c>
       <c r="T34" t="n">
-        <v>43.15042425981653</v>
+        <v>108.3077753610589</v>
       </c>
       <c r="U34" t="n">
-        <v>43.15042425981653</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="V34" t="n">
-        <v>43.15042425981653</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="W34" t="n">
-        <v>43.15042425981653</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="X34" t="n">
-        <v>43.15042425981653</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.15042425981653</v>
+        <v>80.43906297690118</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.2764642733967</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="C35" t="n">
-        <v>68.2764642733967</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="D35" t="n">
-        <v>43.15042425981653</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="E35" t="n">
-        <v>43.15042425981653</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="F35" t="n">
-        <v>43.15042425981653</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="G35" t="n">
-        <v>43.15042425981653</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="H35" t="n">
-        <v>43.15042425981653</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166710156947247</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L35" t="n">
-        <v>81.54278654139161</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M35" t="n">
-        <v>119.1474696551402</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N35" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O35" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>148.2438924791353</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R35" t="n">
-        <v>108.260178376266</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S35" t="n">
-        <v>68.2764642733967</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T35" t="n">
-        <v>68.2764642733967</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U35" t="n">
-        <v>68.2764642733967</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V35" t="n">
-        <v>68.2764642733967</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W35" t="n">
-        <v>68.2764642733967</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="X35" t="n">
-        <v>68.2764642733967</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.2764642733967</v>
+        <v>97.8833284203818</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>123.1178524655551</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C36" t="n">
-        <v>83.13413836268582</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D36" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E36" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F36" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G36" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H36" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L36" t="n">
-        <v>81.54278654139161</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M36" t="n">
-        <v>119.1474696551402</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N36" t="n">
-        <v>119.1474696551402</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O36" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P36" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V36" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W36" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X36" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y36" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C37" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U37" t="n">
-        <v>93.21247408113457</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V37" t="n">
-        <v>53.22875997826529</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W37" t="n">
-        <v>13.245045875396</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X37" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>148.2438924791353</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="C38" t="n">
-        <v>123.1178524655551</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="D38" t="n">
-        <v>123.1178524655551</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="E38" t="n">
-        <v>123.1178524655551</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="F38" t="n">
-        <v>123.1178524655551</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="G38" t="n">
-        <v>83.13413836268582</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H38" t="n">
-        <v>43.15042425981653</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166710156947247</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>3.166710156947247</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L38" t="n">
-        <v>40.77139327069581</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M38" t="n">
-        <v>40.77139327069581</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N38" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O38" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S38" t="n">
-        <v>148.2438924791353</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="T38" t="n">
-        <v>148.2438924791353</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="U38" t="n">
-        <v>148.2438924791353</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="V38" t="n">
-        <v>148.2438924791353</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="W38" t="n">
-        <v>148.2438924791353</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="X38" t="n">
-        <v>148.2438924791353</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.2438924791353</v>
+        <v>42.14590365206637</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C39" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D39" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E39" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F39" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G39" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="H39" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M39" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N39" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O39" t="n">
-        <v>120.7308247336138</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T39" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U39" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V39" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W39" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X39" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C40" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D40" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>148.2571721289136</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
-        <v>108.2734580260443</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>68.28974392317502</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L40" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M40" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N40" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S40" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T40" t="n">
-        <v>158.3355078473624</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U40" t="n">
-        <v>158.3355078473624</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V40" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W40" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X40" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y40" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83.13413836268582</v>
+        <v>41.06246023317102</v>
       </c>
       <c r="C41" t="n">
-        <v>43.15042425981653</v>
+        <v>41.06246023317102</v>
       </c>
       <c r="D41" t="n">
-        <v>43.15042425981653</v>
+        <v>41.06246023317102</v>
       </c>
       <c r="E41" t="n">
-        <v>43.15042425981653</v>
+        <v>41.06246023317102</v>
       </c>
       <c r="F41" t="n">
-        <v>43.15042425981653</v>
+        <v>41.06246023317102</v>
       </c>
       <c r="G41" t="n">
-        <v>43.15042425981653</v>
+        <v>41.06246023317102</v>
       </c>
       <c r="H41" t="n">
-        <v>3.166710156947247</v>
+        <v>41.06246023317102</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166710156947247</v>
+        <v>14.19767985317874</v>
       </c>
       <c r="J41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K41" t="n">
-        <v>3.166710156947247</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="L41" t="n">
-        <v>42.35474834916943</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="M41" t="n">
-        <v>81.54278654139161</v>
+        <v>81.11820435738666</v>
       </c>
       <c r="N41" t="n">
-        <v>120.7308247336138</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="O41" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="P41" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q41" t="n">
-        <v>158.3355078473624</v>
+        <v>96.29291493654232</v>
       </c>
       <c r="R41" t="n">
-        <v>158.3355078473624</v>
+        <v>94.79202099315557</v>
       </c>
       <c r="S41" t="n">
-        <v>158.3355078473624</v>
+        <v>94.79202099315557</v>
       </c>
       <c r="T41" t="n">
-        <v>158.3355078473624</v>
+        <v>67.92724061316329</v>
       </c>
       <c r="U41" t="n">
-        <v>158.3355078473624</v>
+        <v>67.92724061316329</v>
       </c>
       <c r="V41" t="n">
-        <v>158.3355078473624</v>
+        <v>67.92724061316329</v>
       </c>
       <c r="W41" t="n">
-        <v>158.3355078473624</v>
+        <v>41.06246023317102</v>
       </c>
       <c r="X41" t="n">
-        <v>158.3355078473624</v>
+        <v>41.06246023317102</v>
       </c>
       <c r="Y41" t="n">
-        <v>123.1178524655551</v>
+        <v>41.06246023317102</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="C42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="D42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="E42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="F42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="G42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="H42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="M42" t="n">
-        <v>42.35474834916943</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="N42" t="n">
-        <v>81.54278654139161</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="O42" t="n">
-        <v>120.7308247336138</v>
+        <v>81.11820435738666</v>
       </c>
       <c r="P42" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R42" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S42" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T42" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="U42" t="n">
-        <v>118.3517937444931</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="V42" t="n">
-        <v>78.36807964162378</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="W42" t="n">
-        <v>38.38436553875449</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="X42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.15042425981653</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="C43" t="n">
-        <v>43.15042425981653</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="D43" t="n">
-        <v>43.15042425981653</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="E43" t="n">
-        <v>43.15042425981653</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="F43" t="n">
-        <v>43.15042425981653</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="G43" t="n">
-        <v>43.15042425981653</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H43" t="n">
-        <v>43.15042425981653</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I43" t="n">
-        <v>43.15042425981653</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L43" t="n">
-        <v>30.48083516466022</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="M43" t="n">
-        <v>69.6688733568824</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="N43" t="n">
-        <v>108.8569115491046</v>
+        <v>81.11820435738666</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1961881840039</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="P43" t="n">
-        <v>133.1961881840039</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.1961881840039</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="R43" t="n">
-        <v>123.1178524655551</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="S43" t="n">
-        <v>83.13413836268582</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="T43" t="n">
-        <v>83.13413836268582</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="U43" t="n">
-        <v>43.15042425981653</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="V43" t="n">
-        <v>43.15042425981653</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="W43" t="n">
-        <v>43.15042425981653</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="X43" t="n">
-        <v>43.15042425981653</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.15042425981653</v>
+        <v>105.4574809922859</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>27.39401655347812</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>28.45786185652582</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>54.78803310695625</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.11820435738667</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
     </row>
   </sheetData>
@@ -9170,16 +9172,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>231.2999686312299</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>230.4069562807147</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>231.0921041058105</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>232.2268884393933</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>138.8353316584828</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>139.548272463998</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>132.2954474872905</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9261,7 +9263,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>140.9756667701453</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>135.8785689653621</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>139.9196766317288</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>128.679437149357</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>139.4102738558</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9401,16 +9403,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>258.0743794427063</v>
+        <v>221.0837437291043</v>
       </c>
       <c r="L20" t="n">
-        <v>275.3502919318278</v>
+        <v>236.760307654111</v>
       </c>
       <c r="M20" t="n">
-        <v>269.9301101891133</v>
+        <v>231.3401259113965</v>
       </c>
       <c r="N20" t="n">
-        <v>268.9969405584315</v>
+        <v>230.3667990005481</v>
       </c>
       <c r="O20" t="n">
         <v>230.0982114216867</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>139.548272463998</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>143.0877693259755</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>132.3356047674571</v>
       </c>
       <c r="O21" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>173.5582843761708</v>
+        <v>134.968300098454</v>
       </c>
       <c r="Q21" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9564,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>135.8785689653621</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>139.9196766317288</v>
       </c>
       <c r="N22" t="n">
-        <v>167.2694214270738</v>
+        <v>128.679437149357</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>139.4102738558</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9638,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L23" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>267.3975919943167</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>257.7082725202193</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9723,19 +9725,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>180.1185623197441</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N24" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,10 +9804,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9878,19 +9880,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>273.750943367713</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M26" t="n">
-        <v>269.9301101891133</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N26" t="n">
-        <v>268.9969405584315</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>177.4253159361996</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M27" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10039,10 +10041,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10112,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>268.3307616249986</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P29" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10194,19 +10196,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M30" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N30" t="n">
-        <v>170.9255890451739</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O30" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P30" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10276,10 +10278,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,19 +10351,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L32" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
-        <v>269.9301101891133</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N32" t="n">
-        <v>268.9969405584315</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O32" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10428,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L33" t="n">
-        <v>176.5389081776</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M33" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N33" t="n">
-        <v>170.9255890451739</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O33" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10513,10 +10515,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>268.3307616249986</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O35" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10750,10 +10752,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L38" t="n">
-        <v>273.750943367713</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N38" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P38" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10908,16 +10910,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N39" t="n">
-        <v>170.9255890451739</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O39" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P39" t="n">
-        <v>171.9589358120561</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -10987,10 +10989,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>246.6859836211729</v>
       </c>
       <c r="L41" t="n">
-        <v>275.3502919318278</v>
+        <v>262.3625475461796</v>
       </c>
       <c r="M41" t="n">
-        <v>269.9301101891133</v>
+        <v>256.9423658034651</v>
       </c>
       <c r="N41" t="n">
-        <v>268.9969405584315</v>
+        <v>254.9346049575836</v>
       </c>
       <c r="O41" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11145,16 +11147,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>181.7179108838589</v>
+        <v>168.7301664982107</v>
       </c>
       <c r="N42" t="n">
-        <v>170.9255890451739</v>
+        <v>157.9378446595257</v>
       </c>
       <c r="O42" t="n">
-        <v>182.180121406285</v>
+        <v>169.1923770206368</v>
       </c>
       <c r="P42" t="n">
-        <v>171.9589358120561</v>
+        <v>159.4959487753229</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11221,13 +11223,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>161.4808088574306</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>165.5219165237974</v>
       </c>
       <c r="N43" t="n">
-        <v>167.2694214270738</v>
+        <v>154.2816770414256</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>244.8072735226552</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>258.9572503268579</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>227.7528737187178</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>226.7777408199137</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>254.2058834288186</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>255.7052848083388</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>162.360123192471</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>166.7279112213936</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>155.8825956434278</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>165.5691886844316</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.4958522384784</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.4834178702207</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.2678715646723</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23747,7 +23749,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>338.4809094316433</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>9.115278538368571</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>148.8752252570259</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>208.0261769021216</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>88.40274016729128</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>100.0290048027248</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>170.689278419714</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>199.1708360106978</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>145.5585419703929</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>176.2994986930457</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>226.9516967441577</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>285.5291056524672</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>381.7399489793568</v>
       </c>
       <c r="C20" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>353.8076209445067</v>
       </c>
       <c r="E20" t="n">
-        <v>342.3464931104212</v>
+        <v>380.936477388138</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23986,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>304.609323287778</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,7 +24016,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>148.8752252570259</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24066,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>88.52121217523884</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>224.947489396851</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>231.8066944653015</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>204.7790925193537</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>178.8380874978135</v>
       </c>
       <c r="C22" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>145.5585419703929</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>166.997086674335</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24148,7 +24150,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>83.3816277554085</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>226.9516967441577</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>350.9622967362659</v>
       </c>
       <c r="D23" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>380.4372586871459</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24333,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>227.3936889116331</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>157.2692687373636</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24385,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>73.63186149126989</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24418,19 +24420,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X25" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>367.6197750375201</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V26" t="n">
-        <v>288.1683815082943</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W26" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>351.3724598280644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>148.4072047390293</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>212.111106199079</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>145.472922565994</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>246.9391213747504</v>
+        <v>264.0742389760816</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C29" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F29" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>124.9943383277053</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="30">
@@ -24762,10 +24764,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>165.2992498668324</v>
+        <v>176.610025771793</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="31">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>157.3832208214279</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D31" t="n">
-        <v>109.0315960563718</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24862,7 +24864,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F32" t="n">
-        <v>382.001266128267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>299.8909251539266</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I32" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>194.7094745515037</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>75.85653990335669</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,13 +25095,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25114,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>2.542173200479953</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>214.039045675708</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,25 +25159,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>329.8082620072386</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I35" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>383.8766329759245</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>65.84192992838649</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25290,13 +25292,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25366,16 +25368,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>246.7351523946503</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V37" t="n">
-        <v>212.5537663619874</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W37" t="n">
-        <v>246.9391213747504</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X37" t="n">
-        <v>215.7321030277729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>340.3981121575632</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>196.6680646915714</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25485,10 +25487,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>65.09533860212863</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,22 +25520,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>170.9075063754883</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25555,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>136.4564102853049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25597,16 +25599,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>201.5678386764629</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>183.8797569942136</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>148.3832329371968</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>196.499716987939</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>322.6448361412207</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>351.3724598280644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25722,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>85.63931166030412</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25761,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>186.3575051191342</v>
+        <v>202.5155085078646</v>
       </c>
       <c r="V42" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>212.111106199079</v>
+        <v>225.0988505847272</v>
       </c>
       <c r="X42" t="n">
-        <v>170.9075063754883</v>
+        <v>179.1768526272851</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>126.1073782644608</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>119.8378300703768</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>118.8249154467389</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>141.3948467822664</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25807,7 +25809,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -25831,16 +25833,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>167.3158390159052</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>359.3079680903704</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>338.6767591948152</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>355.3342374960694</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>380.2799131655191</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25950,22 +25952,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>134.2192068822907</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>118.4730798171915</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>110.7394823158894</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>85.56299235755959</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26026,28 +26028,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>125.1895994451021</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>119.8378300703768</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>118.8249154467389</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>141.3882217836064</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>333272.9571474838</v>
+        <v>334147.2478335363</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367166.0848885818</v>
+        <v>334147.2478335364</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367166.0848885819</v>
+        <v>357473.8562264881</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367166.0848885818</v>
+        <v>357473.856226488</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367166.0848885818</v>
+        <v>357473.8562264882</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367166.0848885817</v>
+        <v>357473.8562264881</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367166.0848885817</v>
+        <v>357473.856226488</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367166.0848885818</v>
+        <v>357473.8562264881</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367166.0848885818</v>
+        <v>356634.3954042218</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333272.9571474838</v>
+        <v>357233.5903209012</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>69879.81359544014</v>
       </c>
       <c r="E2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="F2" t="n">
         <v>69879.81359544014</v>
       </c>
       <c r="G2" t="n">
-        <v>69879.81359544017</v>
+        <v>70062.83293010978</v>
       </c>
       <c r="H2" t="n">
-        <v>76974.81962490579</v>
+        <v>70062.83293010978</v>
       </c>
       <c r="I2" t="n">
-        <v>76974.81962490578</v>
+        <v>74945.90033124232</v>
       </c>
       <c r="J2" t="n">
-        <v>76974.81962490581</v>
+        <v>74945.90033124234</v>
       </c>
       <c r="K2" t="n">
-        <v>76974.81962490581</v>
+        <v>74945.90033124232</v>
       </c>
       <c r="L2" t="n">
-        <v>76974.81962490578</v>
+        <v>74945.90033124233</v>
       </c>
       <c r="M2" t="n">
-        <v>76974.81962490579</v>
+        <v>74945.90033124233</v>
       </c>
       <c r="N2" t="n">
-        <v>76974.81962490578</v>
+        <v>74945.90033124234</v>
       </c>
       <c r="O2" t="n">
-        <v>76974.81962490578</v>
+        <v>74770.17209391424</v>
       </c>
       <c r="P2" t="n">
-        <v>69879.81359544014</v>
+        <v>74954.63031988787</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>272.4110763280689</v>
       </c>
       <c r="H3" t="n">
-        <v>10680.08625919725</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7072.470170793646</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2445.23496903265</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26432,34 @@
         <v>26876.8513828616</v>
       </c>
       <c r="G4" t="n">
-        <v>26876.8513828616</v>
+        <v>26949.53453398653</v>
       </c>
       <c r="H4" t="n">
-        <v>29694.5175950296</v>
+        <v>26949.53453398653</v>
       </c>
       <c r="I4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="J4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="K4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="L4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="M4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="N4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="O4" t="n">
-        <v>29694.5175950296</v>
+        <v>28818.97769668192</v>
       </c>
       <c r="P4" t="n">
-        <v>26876.8513828616</v>
+        <v>28609.42794882261</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>60.4286751947264</v>
       </c>
       <c r="H5" t="n">
-        <v>2406.699719279908</v>
+        <v>60.4286751947264</v>
       </c>
       <c r="I5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>2406.699719279908</v>
+        <v>1617.044860632495</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1697.135071705177</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>9375.36221257854</v>
       </c>
       <c r="E6" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257854</v>
       </c>
       <c r="F6" t="n">
         <v>43002.96221257854</v>
       </c>
       <c r="G6" t="n">
-        <v>43002.96221257857</v>
+        <v>42780.45864460046</v>
       </c>
       <c r="H6" t="n">
-        <v>34193.51605139905</v>
+        <v>43052.86972092852</v>
       </c>
       <c r="I6" t="n">
-        <v>44873.60231059627</v>
+        <v>37307.19131750102</v>
       </c>
       <c r="J6" t="n">
-        <v>44873.6023105963</v>
+        <v>44379.66148829469</v>
       </c>
       <c r="K6" t="n">
-        <v>44873.6023105963</v>
+        <v>44379.66148829466</v>
       </c>
       <c r="L6" t="n">
-        <v>44873.60231059627</v>
+        <v>44379.66148829467</v>
       </c>
       <c r="M6" t="n">
-        <v>44873.60231059628</v>
+        <v>44379.66148829467</v>
       </c>
       <c r="N6" t="n">
-        <v>44873.60231059628</v>
+        <v>44379.66148829469</v>
       </c>
       <c r="O6" t="n">
-        <v>44873.60231059627</v>
+        <v>44334.14953659983</v>
       </c>
       <c r="P6" t="n">
-        <v>43002.96221257854</v>
+        <v>42202.83233032744</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
     </row>
     <row r="4">
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35890,16 +35892,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.9537354039571718</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.9537354039571716</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.9537354039571716</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36121,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>37.98452839772582</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="L20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="N20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9537354039571716</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.9537354039571718</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="O21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.59002526031614</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M22" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="N22" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="O22" t="n">
-        <v>24.58512791403967</v>
+        <v>0.9537354039571716</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36524,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36598,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P30" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,10 +36998,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O32" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L33" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M33" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N33" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37472,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L38" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P39" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,10 +37709,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="L41" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="M41" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N41" t="n">
-        <v>39.58387696184059</v>
+        <v>25.52154136099267</v>
       </c>
       <c r="O41" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N42" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O42" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="P42" t="n">
-        <v>37.98452839772582</v>
+        <v>25.52154136099267</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.59002526031614</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="M43" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N43" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
@@ -38017,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>25.52154136099266</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.52154136099266</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
